--- a/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_07_end.xlsx
+++ b/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_07_end.xlsx
@@ -824,7 +824,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Frost"]I'm all out of 'welcome mats'. Ammo's gone too.
+    <t xml:space="preserve">[name="Frost"]I'm all out of 'welcome mats.' Ammo's gone too.
 </t>
   </si>
   <si>
